--- a/hybris-nao-tests/src/main/resources/QuickOrdValidateAddCartTwoError.xlsx
+++ b/hybris-nao-tests/src/main/resources/QuickOrdValidateAddCartTwoError.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\seleniumAutomationScripts\hybris\hyb4nov18\hybNov62017\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajkumars\git\IRWWebservice\hybris-nao-tests\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AF0D2A-BF31-48A1-A84F-B27F4838273A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901CF9AB-C904-4561-9D99-4F2618B3C79D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="600" windowWidth="19440" windowHeight="7470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuickOrdValidateAddCartTwoError" sheetId="18" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>TestData2</t>
   </si>
@@ -43,133 +43,19 @@
     <t>Dave.Cottin</t>
   </si>
   <si>
-    <t>400504-00116</t>
-  </si>
-  <si>
     <t>Bobcat of Regina Ltd,Regina,SK</t>
   </si>
   <si>
     <t>Bobcat of Regina, Ltd</t>
   </si>
   <si>
-    <t>Welcome@1</t>
-  </si>
-  <si>
     <t>TestData4</t>
   </si>
   <si>
-    <t>TestData5</t>
-  </si>
-  <si>
-    <t>TestData6</t>
-  </si>
-  <si>
-    <t>TestData7</t>
-  </si>
-  <si>
-    <t>TestData8</t>
-  </si>
-  <si>
-    <t>TestData9</t>
-  </si>
-  <si>
-    <t>TestData10</t>
-  </si>
-  <si>
-    <t>TestData11</t>
-  </si>
-  <si>
-    <t>TestData12</t>
-  </si>
-  <si>
-    <t>rajkumars</t>
-  </si>
-  <si>
-    <t>berberich</t>
-  </si>
-  <si>
-    <t>andreathomas</t>
-  </si>
-  <si>
-    <t>85D10</t>
-  </si>
-  <si>
-    <t>###</t>
-  </si>
-  <si>
-    <t>CLARK EQUIPMENT SALES PVT LTD</t>
-  </si>
-  <si>
-    <t>Bobcat of Williston</t>
-  </si>
-  <si>
-    <t>Ironhide Equipment Inc.</t>
-  </si>
-  <si>
-    <t>AB Equipment Limited</t>
-  </si>
-  <si>
-    <t>A.C. McCartney Equipment, Inc., Carthage, IL</t>
-  </si>
-  <si>
     <t>1364892</t>
   </si>
   <si>
-    <t>1364893</t>
-  </si>
-  <si>
-    <t>1364894</t>
-  </si>
-  <si>
-    <t>1364895</t>
-  </si>
-  <si>
-    <t>1364896</t>
-  </si>
-  <si>
-    <t>AAAAAEQ</t>
-  </si>
-  <si>
-    <t>Bin2</t>
-  </si>
-  <si>
-    <t>AAEQ2</t>
-  </si>
-  <si>
-    <t>Class3</t>
-  </si>
-  <si>
-    <t>85D10erq</t>
-  </si>
-  <si>
-    <t>etw</t>
-  </si>
-  <si>
-    <t>400504-0hj0116</t>
-  </si>
-  <si>
-    <t>Class One 2AB Equipment Limited AB Equipment Limited</t>
-  </si>
-  <si>
-    <t>McCartney Equipment McCartney EquipmentMcCartney EquipmentMcCartney EquipmentMcCartney EquipmentMcCartney EquipmentMcCartney Equipment</t>
-  </si>
-  <si>
-    <t>Class One 2 Class One 2Class One 2Class One 2Class One 2Class One 2Class One 2Class One 2Class One 2Class One 2</t>
-  </si>
-  <si>
-    <t>bobcat12345</t>
-  </si>
-  <si>
     <t>Welcome1</t>
-  </si>
-  <si>
-    <t>Welcome3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2*(</t>
-  </si>
-  <si>
-    <t>T$$</t>
   </si>
   <si>
     <t>D460390</t>
@@ -735,7 +621,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -757,9 +643,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1154,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,7 +1048,7 @@
     <col min="1" max="1" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,40 +1056,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1216,79 +1069,19 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1298,38 +1091,8 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1225987</v>
       </c>
@@ -1339,79 +1102,19 @@
       <c r="C5" s="6">
         <v>1225987</v>
       </c>
-      <c r="D5" s="6">
-        <v>1152446</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1060001</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1226061</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1225500</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1123154</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1176223</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1176223</v>
-      </c>
-      <c r="K5" s="6">
-        <v>1176223</v>
-      </c>
-      <c r="L5" s="6">
-        <v>1225987</v>
-      </c>
-      <c r="M5" s="6">
-        <v>1152446</v>
-      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>6.5165576516557605E+48</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6">
         <v>40050400116</v>
       </c>
-      <c r="D6" s="6">
-        <v>65165573</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -1421,38 +1124,8 @@
       <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="3">
-        <v>7</v>
-      </c>
-      <c r="J7" s="3">
-        <v>7</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3">
-        <v>2</v>
-      </c>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -1462,38 +1135,8 @@
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="4">
-        <v>110</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1503,129 +1146,36 @@
       <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{8D423580-9759-4B45-BEC2-DB54A81633BE}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{BA0504EB-BCD8-4AD3-B0F1-23B64CB72CD0}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{4E3758C5-A80A-4218-BC1C-AF85C5770CBC}"/>
-    <hyperlink ref="L3" r:id="rId4" xr:uid="{21E8977C-6AAB-4408-884A-95C71C4509D8}"/>
-    <hyperlink ref="M3" r:id="rId5" xr:uid="{89C4F14B-AFE2-42B2-BA11-7B91BAC400AA}"/>
-    <hyperlink ref="B3" r:id="rId6" xr:uid="{00C62806-DFF5-438E-BF0B-B246E8D7A0EF}"/>
+    <hyperlink ref="A3" r:id="rId1" display="Welcome@1" xr:uid="{8D423580-9759-4B45-BEC2-DB54A81633BE}"/>
+    <hyperlink ref="C3" r:id="rId2" display="Welcome@1" xr:uid="{BA0504EB-BCD8-4AD3-B0F1-23B64CB72CD0}"/>
+    <hyperlink ref="B3" r:id="rId3" display="Welcome@1" xr:uid="{00C62806-DFF5-438E-BF0B-B246E8D7A0EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
 </worksheet>
 </file>